--- a/KakeiboAppBackEnd/src/main/resources/textfile/インターフェース.xlsx
+++ b/KakeiboAppBackEnd/src/main/resources/textfile/インターフェース.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tjk037_\Desktop\学習用\家計管理アプリ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tjk037_\Desktop\git\KakeiboApp\KakeiboAppBackEnd\src\main\resources\textfile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C198F72-25BA-4D71-B621-64ADB318ACAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9029BD5-3D35-46CA-851A-0BC01A5234D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-825" yWindow="30" windowWidth="14400" windowHeight="15480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13635" yWindow="0" windowWidth="14160" windowHeight="15480" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ホーム画面" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="63">
   <si>
     <t>家計簿アプリ</t>
     <rPh sb="0" eb="3">
@@ -97,498 +97,482 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>ホーム</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>収入画面</t>
+    <rPh sb="0" eb="2">
+      <t>シュウニュウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>今月収入：</t>
+    <rPh sb="0" eb="2">
+      <t>コンゲツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュウニュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>今月支出：</t>
+    <rPh sb="0" eb="2">
+      <t>コンゲツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シシュツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>次の給料日：</t>
+    <rPh sb="0" eb="1">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>キュウリョウビ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>今月収入/支出比</t>
+    <rPh sb="0" eb="2">
+      <t>コンゲツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュウニュウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シシュツ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>残額</t>
+    <rPh sb="0" eb="2">
+      <t>ザンガク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>インフラ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>雑貨</t>
+    <rPh sb="0" eb="2">
+      <t>ザッカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>年金</t>
+    <rPh sb="0" eb="2">
+      <t>ネンキン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>送金</t>
+    <rPh sb="0" eb="2">
+      <t>ソウキン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>遊興費</t>
+    <rPh sb="0" eb="3">
+      <t>ユウキョウヒ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>その他分類不能</t>
+    <rPh sb="2" eb="3">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ブンルイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>フノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>←先月へ</t>
+    <rPh sb="1" eb="3">
+      <t>センゲツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>月ごとのカテゴリ別支出</t>
+    <rPh sb="0" eb="1">
+      <t>ツキ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シシュツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>月</t>
+    <rPh sb="0" eb="1">
+      <t>ツキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>年</t>
+    <rPh sb="0" eb="1">
+      <t>ネン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>日</t>
+    <rPh sb="0" eb="1">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>入力確定</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カクテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>食費　4470</t>
+    <rPh sb="0" eb="2">
+      <t>ショクヒ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>メモ：卵は一週間以内に</t>
+    <rPh sb="3" eb="4">
+      <t>タマゴ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>イッシュウカン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>イナイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>4/6</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>4/11</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>給料　162000</t>
+    <rPh sb="0" eb="2">
+      <t>キュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　　　▼</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>雑貨　6850</t>
+    <rPh sb="0" eb="2">
+      <t>ザッカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>メモ：ゲーム</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>今月目標貯金：</t>
+    <rPh sb="0" eb="2">
+      <t>コンゲツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>モクヒョウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>チョキン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>可用残額：</t>
+    <rPh sb="0" eb="1">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ザンガク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>繰り越し金</t>
+    <rPh sb="0" eb="1">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>キン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ナス3本・人参3本・キャベツ半玉</t>
+    <rPh sb="3" eb="4">
+      <t>ボン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ニンジン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ボン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ハンタマ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>個別収支閲覧・編集・削除画面</t>
+    <rPh sb="0" eb="2">
+      <t>コベツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュウシ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>エツラン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>編集</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>削除</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ほめる！</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>❤️</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>がんばった！：</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>一か月の収入</t>
+    <rPh sb="0" eb="1">
+      <t>イッ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ゲツ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シュウニュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>一か月の支出</t>
+    <rPh sb="0" eb="1">
+      <t>イッ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ゲツ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シシュツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>一か月の収支グラフ</t>
+    <rPh sb="0" eb="1">
+      <t>イッ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ゲツ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シュウシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>半年の収支グラフ</t>
+    <rPh sb="0" eb="2">
+      <t>ハントシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シュウシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>全収入</t>
+    <rPh sb="0" eb="1">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>シュウニュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>全支出</t>
+    <rPh sb="0" eb="1">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>シシュツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>❤️❤️❤️</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>昔の月の支出</t>
+    <rPh sb="0" eb="1">
+      <t>ムカシ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ツキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シシュツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>昔の月の収入</t>
+    <rPh sb="0" eb="1">
+      <t>ムカシ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ツキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シュウニュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>カテゴリ別収支一覧</t>
+    <rPh sb="4" eb="5">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シュウシ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>カテゴリグラフ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>戻る</t>
+    <rPh sb="0" eb="1">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>前の月</t>
+    <rPh sb="0" eb="1">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ツキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>次の月</t>
+    <rPh sb="0" eb="1">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ツキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>当月がんばった数：</t>
+    <rPh sb="0" eb="2">
+      <t>トウガツ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カズ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>＋</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>支出</t>
     <rPh sb="0" eb="2">
       <t>シシュツ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ホーム</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>収入画面</t>
-    <rPh sb="0" eb="2">
-      <t>シュウニュウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>今月収入：</t>
-    <rPh sb="0" eb="2">
-      <t>コンゲツ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>シュウニュウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>今月支出：</t>
-    <rPh sb="0" eb="2">
-      <t>コンゲツ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>シシュツ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>次の給料日：</t>
-    <rPh sb="0" eb="1">
-      <t>ツギ</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>キュウリョウビ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>今月収入/支出比</t>
-    <rPh sb="0" eb="2">
-      <t>コンゲツ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>シュウニュウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>シシュツ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ヒ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>残額</t>
-    <rPh sb="0" eb="2">
-      <t>ザンガク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>インフラ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>雑貨</t>
-    <rPh sb="0" eb="2">
-      <t>ザッカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>年金</t>
-    <rPh sb="0" eb="2">
-      <t>ネンキン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>送金</t>
-    <rPh sb="0" eb="2">
-      <t>ソウキン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>遊興費</t>
-    <rPh sb="0" eb="3">
-      <t>ユウキョウヒ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>その他分類不能</t>
-    <rPh sb="2" eb="3">
-      <t>ホカ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ブンルイ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>フノウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>←先月へ</t>
-    <rPh sb="1" eb="3">
-      <t>センゲツ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>月ごとのカテゴリ別支出</t>
-    <rPh sb="0" eb="1">
-      <t>ツキ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ベツ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>シシュツ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>月</t>
-    <rPh sb="0" eb="1">
-      <t>ツキ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>年</t>
-    <rPh sb="0" eb="1">
-      <t>ネン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>日</t>
-    <rPh sb="0" eb="1">
-      <t>ニチ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>入力確定</t>
-    <rPh sb="0" eb="2">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>カクテイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>食費　4470</t>
-    <rPh sb="0" eb="2">
-      <t>ショクヒ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>メモ：卵は一週間以内に</t>
-    <rPh sb="3" eb="4">
-      <t>タマゴ</t>
-    </rPh>
-    <rPh sb="5" eb="8">
-      <t>イッシュウカン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>イナイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>4/6</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>4/11</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>給料　162000</t>
-    <rPh sb="0" eb="2">
-      <t>キュウリョウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>　　　▼</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>雑貨　6850</t>
-    <rPh sb="0" eb="2">
-      <t>ザッカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>メモ：ゲーム</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>今月目標貯金：</t>
-    <rPh sb="0" eb="2">
-      <t>コンゲツ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>モクヒョウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>チョキン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>可用残額：</t>
-    <rPh sb="0" eb="1">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>ヨウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ザンガク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>繰り越し金</t>
-    <rPh sb="0" eb="1">
-      <t>ク</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>キン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ナス3本・人参3本・キャベツ半玉</t>
-    <rPh sb="3" eb="4">
-      <t>ボン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ニンジン</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ボン</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ハンタマ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>個別収支閲覧・編集・削除画面</t>
-    <rPh sb="0" eb="2">
-      <t>コベツ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>シュウシ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>エツラン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ヘンシュウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>編集</t>
-    <rPh sb="0" eb="2">
-      <t>ヘンシュウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>削除</t>
-    <rPh sb="0" eb="2">
-      <t>サクジョ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ほめる！</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>❤️</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>がんばった！：</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>一か月の収入</t>
-    <rPh sb="0" eb="1">
-      <t>イッ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ゲツ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>シュウニュウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>一か月の支出</t>
-    <rPh sb="0" eb="1">
-      <t>イッ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ゲツ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>シシュツ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>一か月の収支グラフ</t>
-    <rPh sb="0" eb="1">
-      <t>イッ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ゲツ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>シュウシ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>半年の収支グラフ</t>
-    <rPh sb="0" eb="2">
-      <t>ハントシ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>シュウシ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>全収入</t>
-    <rPh sb="0" eb="1">
-      <t>ゼン</t>
-    </rPh>
-    <rPh sb="1" eb="3">
-      <t>シュウニュウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>全支出</t>
-    <rPh sb="0" eb="1">
-      <t>ゼン</t>
-    </rPh>
-    <rPh sb="1" eb="3">
-      <t>シシュツ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>❤️❤️❤️</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>今月がんばった数：</t>
-    <rPh sb="0" eb="2">
-      <t>コンゲツ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>カズ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>昔の月の支出</t>
-    <rPh sb="0" eb="1">
-      <t>ムカシ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ツキ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>シシュツ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>昔の月の収入</t>
-    <rPh sb="0" eb="1">
-      <t>ムカシ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ツキ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>シュウニュウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>カテゴリ別収支一覧</t>
-    <rPh sb="4" eb="5">
-      <t>ベツ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>シュウシ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>イチラン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>カテゴリグラフ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>戻る</t>
-    <rPh sb="0" eb="1">
-      <t>モド</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>編集確定</t>
-    <rPh sb="0" eb="2">
-      <t>ヘンシュウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>カクテイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>編集中止</t>
-    <rPh sb="0" eb="2">
-      <t>ヘンシュウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>チュウシ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>前の月</t>
-    <rPh sb="0" eb="1">
-      <t>マエ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ツキ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>次の月</t>
-    <rPh sb="0" eb="1">
-      <t>ツギ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ツキ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -697,12 +681,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -713,8 +691,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -854,11 +838,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -885,18 +895,14 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="5" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -916,19 +922,24 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -3122,10 +3133,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O28"/>
+  <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3141,124 +3152,115 @@
     <col min="15" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="30">
+    <row r="1" spans="1:14" ht="30">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
       <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:14">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:14">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="J3" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="K3" s="32"/>
-      <c r="L3" s="33"/>
-      <c r="N3" s="51" t="s">
-        <v>8</v>
-      </c>
-      <c r="O3" s="52"/>
-    </row>
-    <row r="4" spans="1:15">
+        <v>60</v>
+      </c>
+      <c r="J3" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="K3" s="31"/>
+      <c r="L3" s="32"/>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" s="5"/>
-      <c r="N4" s="53"/>
-      <c r="O4" s="54"/>
-    </row>
-    <row r="5" spans="1:15">
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I5" s="6"/>
       <c r="J5" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L5" s="6"/>
-      <c r="N5" s="35"/>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="N5" s="50"/>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="5"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="5" t="s">
         <v>48</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="N6" s="51" t="s">
-        <v>9</v>
-      </c>
-      <c r="O6" s="52"/>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="5" t="s">
-        <v>49</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I7" s="6"/>
       <c r="J7" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L7" s="24"/>
-      <c r="N7" s="53"/>
-      <c r="O7" s="54"/>
-    </row>
-    <row r="8" spans="1:15">
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B8" s="5"/>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:14">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
-      <c r="E9" s="55" t="s">
-        <v>62</v>
-      </c>
-      <c r="I9" s="55" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="E9" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="I9" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="L9" s="51" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B10" s="5"/>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:14">
       <c r="A11" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B11" s="5"/>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:14">
       <c r="A12" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="7" t="s">
@@ -3267,7 +3269,7 @@
       <c r="D12" s="8"/>
       <c r="E12" s="9"/>
       <c r="G12" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H12" s="8"/>
       <c r="I12" s="9"/>
@@ -3275,18 +3277,18 @@
       <c r="L12" s="8"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:14">
       <c r="A13" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="12"/>
       <c r="G13" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H13" s="11"/>
       <c r="I13" s="12"/>
@@ -3294,9 +3296,9 @@
       <c r="L13" s="11"/>
       <c r="M13" s="12"/>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:14">
       <c r="A14" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="10"/>
@@ -3309,18 +3311,18 @@
       <c r="L14" s="11"/>
       <c r="M14" s="12"/>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:14">
       <c r="A15" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="12"/>
       <c r="G15" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H15" s="11"/>
       <c r="I15" s="12"/>
@@ -3328,7 +3330,7 @@
       <c r="L15" s="11"/>
       <c r="M15" s="12"/>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:14">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="13"/>
@@ -3349,10 +3351,10 @@
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18" s="34" t="s">
-        <v>45</v>
+        <v>31</v>
+      </c>
+      <c r="D18" s="33" t="s">
+        <v>44</v>
       </c>
       <c r="E18" s="17"/>
     </row>
@@ -3360,11 +3362,11 @@
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D19" s="19"/>
       <c r="E19" s="20"/>
-      <c r="H19" s="49"/>
+      <c r="H19" s="47"/>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="5"/>
@@ -3372,7 +3374,7 @@
       <c r="C20" s="18"/>
       <c r="D20" s="19"/>
       <c r="E20" s="20"/>
-      <c r="H20" s="50"/>
+      <c r="H20" s="48"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="5"/>
@@ -3380,7 +3382,7 @@
       <c r="C21" s="18"/>
       <c r="D21" s="19"/>
       <c r="E21" s="20"/>
-      <c r="H21" s="50"/>
+      <c r="H21" s="48"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="5"/>
@@ -3414,10 +3416,6 @@
       <c r="B28" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="N3:O4"/>
-    <mergeCell ref="N6:O7"/>
-  </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3425,75 +3423,108 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AC1CE68-11CB-4865-8394-50BD2069E1AA}">
-  <dimension ref="B7:G20"/>
+  <dimension ref="B1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="16384" width="9" style="36"/>
+    <col min="1" max="16384" width="9" style="34"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:7">
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+    </row>
+    <row r="2" spans="2:7">
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+    </row>
+    <row r="3" spans="2:7">
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="C4" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="52"/>
+      <c r="E4" s="53" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="C5" s="54"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="54"/>
+    </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="34" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="2:7">
-      <c r="C8" s="36" t="s">
+      <c r="D8" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="36" t="s">
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="35"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="37"/>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="38" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="B14" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="35"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="37"/>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="39" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="C20" s="34" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="10" spans="2:7">
-      <c r="B10" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="37"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="39"/>
-    </row>
-    <row r="12" spans="2:7">
-      <c r="B12" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" s="40" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7">
-      <c r="B14" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="37"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="39"/>
-    </row>
-    <row r="17" spans="2:6">
-      <c r="B17" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" s="41" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6">
-      <c r="C20" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="F20" s="36" t="s">
-        <v>59</v>
+      <c r="F20" s="34" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="E4:E5"/>
+  </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3501,77 +3532,77 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1644580-74ED-4D94-9239-B2098EA617E7}">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="16384" width="9" style="42"/>
+    <col min="1" max="16384" width="9" style="40"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="42" t="s">
-        <v>11</v>
+      <c r="A1" s="40" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="30">
-      <c r="B3" s="43"/>
+      <c r="B3" s="41"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="B7" s="40" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="C8" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="40" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="B10" s="42" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="C11" s="42" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" s="42" t="s">
+      <c r="B10" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="42"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="44"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="B12" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="45" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="B14" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="42"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="44"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="B16" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="46" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3">
+      <c r="C20" s="40" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="B13" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="44"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="46"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="B15" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="C15" s="47" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6">
-      <c r="B17" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="44"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="46"/>
-    </row>
-    <row r="19" spans="2:6">
-      <c r="B19" s="42" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" s="48" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6">
-      <c r="C23" s="42" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -3592,7 +3623,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="30">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -3606,25 +3637,25 @@
         <v>7</v>
       </c>
       <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s">
         <v>17</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>18</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>19</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>20</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>21</v>
       </c>
-      <c r="L3" t="s">
-        <v>22</v>
-      </c>
       <c r="M3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -3679,7 +3710,7 @@
   <sheetData>
     <row r="2" spans="2:13">
       <c r="B2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C2" s="25">
         <v>46113</v>
@@ -3813,8 +3844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF988F84-91E3-4D12-B03B-8F9D37C3E9D9}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3825,11 +3856,11 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="30">
-      <c r="B4" s="28">
+      <c r="B4" s="27">
         <v>46113</v>
       </c>
     </row>
@@ -3837,12 +3868,13 @@
       <c r="B8" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="27">
+      <c r="D8" s="26">
         <v>46113</v>
       </c>
-      <c r="G8" s="26" t="s">
-        <v>42</v>
-      </c>
+      <c r="G8" s="56"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="G9" s="56"/>
     </row>
     <row r="10" spans="1:7">
       <c r="B10" t="s">
@@ -3851,9 +3883,10 @@
       <c r="D10" t="s">
         <v>5</v>
       </c>
-      <c r="G10" s="26" t="s">
-        <v>42</v>
-      </c>
+      <c r="G10" s="56"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="G11" s="56"/>
     </row>
     <row r="12" spans="1:7">
       <c r="B12" t="s">
@@ -3862,43 +3895,47 @@
       <c r="D12">
         <v>4700</v>
       </c>
-      <c r="G12" s="26" t="s">
-        <v>42</v>
-      </c>
+      <c r="G12" s="56"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="G13" s="56"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="G14" s="56"/>
     </row>
     <row r="15" spans="1:7">
       <c r="B15" t="s">
         <v>6</v>
       </c>
       <c r="D15" t="s">
-        <v>40</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="G15" s="56"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="G16" s="56"/>
     </row>
     <row r="17" spans="2:7">
-      <c r="G17" s="26" t="s">
-        <v>42</v>
-      </c>
+      <c r="G17" s="56"/>
     </row>
     <row r="18" spans="2:7">
       <c r="B18" t="s">
-        <v>46</v>
-      </c>
-      <c r="D18" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="G18" s="26" t="s">
+      <c r="D18" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="G18" s="56"/>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" s="28" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="21" spans="2:7">
-      <c r="B21" s="29" t="s">
-        <v>43</v>
-      </c>
       <c r="E21" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="G21" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
